--- a/biology/Mycologie/Mastigomycota/Mastigomycota.xlsx
+++ b/biology/Mycologie/Mastigomycota/Mastigomycota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mastigomycota est le nom d'une ancienne division de champignons qui rassemblait des organismes appartenant à deux règnes différent les Chytridiomycota (Fungi ou Champignon) et les Chromista.
 Ce sont des organismes microscopiques saprophytes vivant en milieu aquatique, comme les algues, d'où leur ancien nom de Sarthoumycetes (du grec « champignons algues »).
